--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1660343.205637504</v>
+        <v>1656384.805873865</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29000193.10200922</v>
+        <v>29000193.10200921</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6374737.801857031</v>
+        <v>6374737.801857032</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>415.8212469923283</v>
+        <v>146.8567201770543</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>412.2492189123452</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>414.9066947591165</v>
       </c>
       <c r="F11" t="n">
-        <v>241.6027618359325</v>
+        <v>414.0624642979892</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>51.5940368219011</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T11" t="n">
-        <v>203.2768368875957</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>400.7923231494257</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>394.473421650154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.70678714197221</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.4423617953686</v>
       </c>
       <c r="D13" t="n">
-        <v>154.8731294499925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.92416009154807</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.8997042043449</v>
       </c>
       <c r="H13" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>65.3694966697185</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>210.0716883965071</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>412.2492189123452</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>18.42473229017154</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>51.59403682190111</v>
       </c>
       <c r="T14" t="n">
-        <v>203.2768368875957</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.9205245114523</v>
+        <v>60.92052451145229</v>
       </c>
       <c r="T15" t="n">
         <v>136.2099789577612</v>
@@ -1767,7 +1767,7 @@
         <v>181.4538333304405</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.4423617953686</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>157.7356480941705</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.21755584707012</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8997042043449</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>65.3694966697185</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.2136763060693</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.3174472233585</v>
       </c>
       <c r="U16" t="n">
         <v>270.5238981323836</v>
@@ -1827,7 +1827,7 @@
         <v>272.0838770235468</v>
       </c>
       <c r="W16" t="n">
-        <v>226.1015822810752</v>
+        <v>265.2934040947076</v>
       </c>
       <c r="X16" t="n">
         <v>233.3277818941484</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>415.8212469923283</v>
@@ -1855,13 +1855,13 @@
         <v>414.9066947591165</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>414.0624642979892</v>
       </c>
       <c r="G17" t="n">
-        <v>28.68804200471295</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>150.4687949137846</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>385.616960508152</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>400.7923231494257</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.4538333304405</v>
+        <v>83.09149601097396</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>154.8731294499925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>157.7356480941705</v>
       </c>
       <c r="F19" t="n">
         <v>163.3326807886806</v>
@@ -2019,10 +2019,10 @@
         <v>156.8997042043449</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I19" t="n">
-        <v>35.1602520110685</v>
+        <v>65.3694966697185</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>233.3277818941484</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.2688649326508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C20" t="n">
-        <v>415.8212469923283</v>
+        <v>353.0128526223835</v>
       </c>
       <c r="D20" t="n">
         <v>412.2492189123452</v>
@@ -2095,10 +2095,10 @@
         <v>414.0624642979892</v>
       </c>
       <c r="G20" t="n">
-        <v>391.5139790356962</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.111068370370258</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>181.4538333304405</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.4423617953686</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>157.7356480941705</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>163.3326807886806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8997042043449</v>
+        <v>74.73952763517096</v>
       </c>
       <c r="H22" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>65.3694966697185</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>265.2934040947076</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>233.3277818941484</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.75469700112744</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>20.17889562880904</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>391.5139790356962</v>
       </c>
       <c r="H23" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.59403682190111</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.2768368875957</v>
@@ -2386,7 +2386,7 @@
         <v>400.7923231494257</v>
       </c>
       <c r="Y23" t="n">
-        <v>95.16678808813168</v>
+        <v>394.473421650154</v>
       </c>
     </row>
     <row r="24">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.2136763060696</v>
+        <v>146.2136763060694</v>
       </c>
       <c r="T25" t="n">
         <v>230.3174472233585</v>
       </c>
       <c r="U25" t="n">
-        <v>270.5238981323837</v>
+        <v>270.5238981323833</v>
       </c>
       <c r="V25" t="n">
         <v>272.0838770235468</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>156.197876672859</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>272.3594736896736</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>274.7019680634353</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0.7460081356695412</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>71.16347337338527</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>255.6136629450522</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.810475694504518</v>
+        <v>6.810475694504757</v>
       </c>
       <c r="S31" t="n">
         <v>153.0241520005739</v>
       </c>
       <c r="T31" t="n">
-        <v>237.127922917863</v>
+        <v>237.1279229178627</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3343738268882</v>
+        <v>277.3343738268885</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3034,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>355.1699063014744</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6136629450522</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>315.5886235648056</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.810475694504518</v>
+        <v>6.810475694504757</v>
       </c>
       <c r="S34" t="n">
         <v>153.0241520005739</v>
       </c>
       <c r="T34" t="n">
-        <v>237.127922917863</v>
+        <v>237.1279229178627</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3343738268882</v>
+        <v>277.3343738268885</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3271,19 +3271,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3244547302007</v>
+        <v>370.3831446280483</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12422141100307</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>159.6589226907001</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4967851938014</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.17997236422302</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>6.810475694504518</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0241520005739</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.127922917863</v>
       </c>
       <c r="U37" t="n">
         <v>277.3343738268882</v>
       </c>
       <c r="V37" t="n">
-        <v>253.3948882853684</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>390.3939471420429</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.40451251640562</v>
+        <v>12.74394619359193</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>51.85252238403466</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7101798988494</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4967851938014</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>49.88492693582084</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7019680634353</v>
+        <v>101.8913195295424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0873125821002</v>
       </c>
       <c r="U41" t="n">
-        <v>203.3862258459777</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.45040017607093</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.7101798988494</v>
       </c>
       <c r="H43" t="n">
-        <v>28.32481963584932</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I43" t="n">
         <v>72.17997236422302</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.810475694504518</v>
       </c>
       <c r="S43" t="n">
         <v>153.0241520005739</v>
       </c>
       <c r="T43" t="n">
-        <v>237.127922917863</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3343738268882</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>383.3514315814302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>379.7812818402506</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>6.634770690126161</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7101798988494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.17997236422302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>6.810475694504518</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0241520005739</v>
+        <v>45.63874344262751</v>
       </c>
       <c r="T46" t="n">
         <v>237.127922917863</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>706.4201423408086</v>
+        <v>1715.049012731895</v>
       </c>
       <c r="C11" t="n">
-        <v>286.3986807323961</v>
+        <v>1566.708891340931</v>
       </c>
       <c r="D11" t="n">
-        <v>286.3986807323961</v>
+        <v>1150.295538904219</v>
       </c>
       <c r="E11" t="n">
-        <v>286.3986807323961</v>
+        <v>731.1978674303634</v>
       </c>
       <c r="F11" t="n">
-        <v>42.35548695872698</v>
+        <v>312.952953998051</v>
       </c>
       <c r="G11" t="n">
-        <v>42.35548695872698</v>
+        <v>312.952953998051</v>
       </c>
       <c r="H11" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="I11" t="n">
-        <v>83.38845554548371</v>
+        <v>83.38845554548368</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8942334459614</v>
+        <v>219.8942334459613</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7260182612551</v>
+        <v>432.726018261255</v>
       </c>
       <c r="L11" t="n">
         <v>702.759203500324</v>
@@ -5071,22 +5071,22 @@
         <v>2065.659159227358</v>
       </c>
       <c r="T11" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="U11" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="V11" t="n">
-        <v>1509.718874461596</v>
+        <v>1715.049012731895</v>
       </c>
       <c r="W11" t="n">
-        <v>1509.718874461596</v>
+        <v>1715.049012731895</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.878144007631</v>
+        <v>1715.049012731895</v>
       </c>
       <c r="Y11" t="n">
-        <v>706.4201423408086</v>
+        <v>1715.049012731895</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I12" t="n">
-        <v>62.29462781642934</v>
+        <v>85.75193366084119</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5386338452445</v>
+        <v>311.6137163632576</v>
       </c>
       <c r="K12" t="n">
-        <v>286.9702616882102</v>
+        <v>458.0453442062233</v>
       </c>
       <c r="L12" t="n">
-        <v>491.3930690460552</v>
+        <v>662.4681515640682</v>
       </c>
       <c r="M12" t="n">
         <v>904.1654168277539</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.7988562708562</v>
+        <v>466.2299543940604</v>
       </c>
       <c r="C13" t="n">
-        <v>393.7988562708562</v>
+        <v>301.1366596512638</v>
       </c>
       <c r="D13" t="n">
-        <v>237.3613517759142</v>
+        <v>301.1366596512638</v>
       </c>
       <c r="E13" t="n">
-        <v>237.3613517759142</v>
+        <v>266.8698312759627</v>
       </c>
       <c r="F13" t="n">
-        <v>237.3613517759142</v>
+        <v>266.8698312759627</v>
       </c>
       <c r="G13" t="n">
-        <v>237.3613517759142</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="H13" t="n">
         <v>108.3852815746042</v>
@@ -5199,19 +5199,19 @@
         <v>42.35548695872698</v>
       </c>
       <c r="J13" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K13" t="n">
-        <v>412.0449149261711</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L13" t="n">
-        <v>896.8790573105587</v>
+        <v>974.8007739587795</v>
       </c>
       <c r="M13" t="n">
-        <v>1011.74883800695</v>
+        <v>1089.670554655171</v>
       </c>
       <c r="N13" t="n">
-        <v>1419.544571022453</v>
+        <v>1203.085836672903</v>
       </c>
       <c r="O13" t="n">
         <v>1521.00106381205</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.5491116016634</v>
+        <v>872.8483457852047</v>
       </c>
       <c r="C14" t="n">
-        <v>42.35548695872698</v>
+        <v>872.8483457852047</v>
       </c>
       <c r="D14" t="n">
-        <v>42.35548695872698</v>
+        <v>456.4349933484924</v>
       </c>
       <c r="E14" t="n">
-        <v>42.35548695872698</v>
+        <v>456.4349933484924</v>
       </c>
       <c r="F14" t="n">
-        <v>42.35548695872698</v>
+        <v>437.8241526513494</v>
       </c>
       <c r="G14" t="n">
         <v>42.35548695872698</v>
@@ -5275,16 +5275,16 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I14" t="n">
-        <v>83.38845554548357</v>
+        <v>83.38845554548379</v>
       </c>
       <c r="J14" t="n">
         <v>219.8942334459612</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7260182612549</v>
+        <v>432.726018261255</v>
       </c>
       <c r="L14" t="n">
-        <v>702.7592035003238</v>
+        <v>702.759203500324</v>
       </c>
       <c r="M14" t="n">
         <v>1008.369435488011</v>
@@ -5308,22 +5308,22 @@
         <v>2065.659159227358</v>
       </c>
       <c r="T14" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="U14" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="V14" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="W14" t="n">
-        <v>1470.816939635694</v>
+        <v>1676.147077905992</v>
       </c>
       <c r="X14" t="n">
-        <v>1065.976209181728</v>
+        <v>1271.306347452027</v>
       </c>
       <c r="Y14" t="n">
-        <v>667.5182075149061</v>
+        <v>872.8483457852047</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I15" t="n">
-        <v>85.75193366084116</v>
+        <v>85.75193366084119</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9959396896563</v>
+        <v>311.6137163632576</v>
       </c>
       <c r="K15" t="n">
-        <v>458.0453442062235</v>
+        <v>458.0453442062233</v>
       </c>
       <c r="L15" t="n">
-        <v>662.4681515640684</v>
+        <v>662.4681515640682</v>
       </c>
       <c r="M15" t="n">
-        <v>904.1654168277541</v>
+        <v>904.1654168277539</v>
       </c>
       <c r="N15" t="n">
         <v>1154.60109430912</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.1748389461318</v>
+        <v>430.6338361876252</v>
       </c>
       <c r="C16" t="n">
-        <v>555.1748389461318</v>
+        <v>265.5405414448286</v>
       </c>
       <c r="D16" t="n">
-        <v>555.1748389461318</v>
+        <v>265.5405414448286</v>
       </c>
       <c r="E16" t="n">
-        <v>395.8459014772727</v>
+        <v>106.2116039759695</v>
       </c>
       <c r="F16" t="n">
-        <v>395.8459014772727</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="G16" t="n">
-        <v>237.3613517759142</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H16" t="n">
-        <v>108.3852815746042</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="I16" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="J16" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K16" t="n">
-        <v>164.7623058121491</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L16" t="n">
-        <v>273.2075546053715</v>
+        <v>598.4118803676145</v>
       </c>
       <c r="M16" t="n">
-        <v>681.7675392375369</v>
+        <v>1122.561031481861</v>
       </c>
       <c r="N16" t="n">
-        <v>1193.215744097149</v>
+        <v>1634.009236341473</v>
       </c>
       <c r="O16" t="n">
-        <v>1672.374561189949</v>
+        <v>1735.46572913107</v>
       </c>
       <c r="P16" t="n">
-        <v>2068.846752186138</v>
+        <v>1917.473254808239</v>
       </c>
       <c r="Q16" t="n">
         <v>2117.774347936349</v>
@@ -5463,25 +5463,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S16" t="n">
-        <v>1970.083765809006</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="T16" t="n">
-        <v>1970.083765809006</v>
+        <v>1885.130461852149</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.827303049023</v>
+        <v>1611.873999092165</v>
       </c>
       <c r="V16" t="n">
-        <v>1421.995104035339</v>
+        <v>1337.041800078481</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.609667387788</v>
+        <v>1069.068664629282</v>
       </c>
       <c r="X16" t="n">
-        <v>957.9250392118806</v>
+        <v>833.3840364533741</v>
       </c>
       <c r="Y16" t="n">
-        <v>738.4615392799101</v>
+        <v>613.9205365214035</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>910.4524402477753</v>
+        <v>1965.785666205253</v>
       </c>
       <c r="C17" t="n">
-        <v>490.4309786393628</v>
+        <v>1545.764204596841</v>
       </c>
       <c r="D17" t="n">
-        <v>490.4309786393628</v>
+        <v>1545.764204596841</v>
       </c>
       <c r="E17" t="n">
-        <v>71.33330716550773</v>
+        <v>1126.666533122986</v>
       </c>
       <c r="F17" t="n">
-        <v>71.33330716550773</v>
+        <v>708.4216196906734</v>
       </c>
       <c r="G17" t="n">
-        <v>42.35548695872698</v>
+        <v>312.952953998051</v>
       </c>
       <c r="H17" t="n">
         <v>42.35548695872698</v>
@@ -5533,7 +5533,7 @@
         <v>1611.464073441579</v>
       </c>
       <c r="P17" t="n">
-        <v>1854.893307191723</v>
+        <v>1854.893307191724</v>
       </c>
       <c r="Q17" t="n">
         <v>2029.870452556934</v>
@@ -5548,19 +5548,19 @@
         <v>2117.774347936349</v>
       </c>
       <c r="U17" t="n">
-        <v>2117.774347936349</v>
+        <v>1965.785666205253</v>
       </c>
       <c r="V17" t="n">
-        <v>2117.774347936349</v>
+        <v>1965.785666205253</v>
       </c>
       <c r="W17" t="n">
-        <v>1728.262266614983</v>
+        <v>1965.785666205253</v>
       </c>
       <c r="X17" t="n">
-        <v>1323.421536161018</v>
+        <v>1965.785666205253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1323.421536161018</v>
+        <v>1965.785666205253</v>
       </c>
     </row>
     <row r="18">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.7754530739659</v>
+        <v>876.5948492882259</v>
       </c>
       <c r="C19" t="n">
-        <v>557.7754530739659</v>
+        <v>876.5948492882259</v>
       </c>
       <c r="D19" t="n">
-        <v>401.337948579024</v>
+        <v>720.157344793284</v>
       </c>
       <c r="E19" t="n">
-        <v>401.337948579024</v>
+        <v>560.8284073244249</v>
       </c>
       <c r="F19" t="n">
-        <v>236.3554427318718</v>
+        <v>395.8459014772727</v>
       </c>
       <c r="G19" t="n">
-        <v>77.87089303051334</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="H19" t="n">
-        <v>77.87089303051334</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="I19" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7360333323696</v>
+        <v>83.81431668414871</v>
       </c>
       <c r="K19" t="n">
-        <v>489.966631574392</v>
+        <v>412.0449149261711</v>
       </c>
       <c r="L19" t="n">
-        <v>813.5571840051261</v>
+        <v>896.8790573105587</v>
       </c>
       <c r="M19" t="n">
-        <v>928.4269647015178</v>
+        <v>1421.028208424805</v>
       </c>
       <c r="N19" t="n">
-        <v>1041.84224671925</v>
+        <v>1883.67427297366</v>
       </c>
       <c r="O19" t="n">
-        <v>1521.00106381205</v>
+        <v>1985.130765763256</v>
       </c>
       <c r="P19" t="n">
-        <v>1917.473254808239</v>
+        <v>2068.846752186138</v>
       </c>
       <c r="Q19" t="n">
         <v>2117.774347936349</v>
@@ -5718,7 +5718,7 @@
         <v>960.5256533397147</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.0621534077442</v>
+        <v>960.5256533397147</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2117.774347936349</v>
+        <v>1652.690063314115</v>
       </c>
       <c r="C20" t="n">
-        <v>1697.752886327936</v>
+        <v>1296.111424301607</v>
       </c>
       <c r="D20" t="n">
-        <v>1281.339533891224</v>
+        <v>879.6980718648945</v>
       </c>
       <c r="E20" t="n">
-        <v>862.2418624173691</v>
+        <v>460.6004003910394</v>
       </c>
       <c r="F20" t="n">
-        <v>443.9969489850567</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="G20" t="n">
-        <v>48.52828329243431</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H20" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="I20" t="n">
-        <v>83.38845554548368</v>
+        <v>83.38845554548369</v>
       </c>
       <c r="J20" t="n">
         <v>219.8942334459613</v>
@@ -5779,25 +5779,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="T20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="U20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="V20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="W20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="X20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="Y20" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>62.29462781642934</v>
       </c>
       <c r="J21" t="n">
-        <v>417.0692166481637</v>
+        <v>140.5386338452445</v>
       </c>
       <c r="K21" t="n">
         <v>563.5008444911293</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>720.157344793284</v>
+        <v>282.9432540602821</v>
       </c>
       <c r="C22" t="n">
-        <v>720.157344793284</v>
+        <v>117.8499593174855</v>
       </c>
       <c r="D22" t="n">
-        <v>720.157344793284</v>
+        <v>117.8499593174855</v>
       </c>
       <c r="E22" t="n">
-        <v>560.8284073244249</v>
+        <v>117.8499593174855</v>
       </c>
       <c r="F22" t="n">
-        <v>395.8459014772727</v>
+        <v>117.8499593174855</v>
       </c>
       <c r="G22" t="n">
-        <v>237.3613517759142</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H22" t="n">
-        <v>108.3852815746042</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="I22" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="J22" t="n">
-        <v>161.7360333323696</v>
+        <v>83.81431668414871</v>
       </c>
       <c r="K22" t="n">
-        <v>489.966631574392</v>
+        <v>164.7623058121491</v>
       </c>
       <c r="L22" t="n">
-        <v>974.8007739587795</v>
+        <v>470.3745926965979</v>
       </c>
       <c r="M22" t="n">
-        <v>1241.183169274825</v>
+        <v>994.5237438108443</v>
       </c>
       <c r="N22" t="n">
-        <v>1354.598451292557</v>
+        <v>1505.971948670457</v>
       </c>
       <c r="O22" t="n">
-        <v>1833.757268385357</v>
+        <v>1985.130765763256</v>
       </c>
       <c r="P22" t="n">
-        <v>1917.473254808239</v>
+        <v>2068.846752186138</v>
       </c>
       <c r="Q22" t="n">
         <v>2117.774347936349</v>
@@ -5952,10 +5952,10 @@
         <v>921.3780825019385</v>
       </c>
       <c r="X22" t="n">
-        <v>921.3780825019385</v>
+        <v>685.693454326031</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4440451270623</v>
+        <v>466.2299543940604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1142.151122714225</v>
+        <v>871.5536556749014</v>
       </c>
       <c r="C23" t="n">
-        <v>1142.151122714225</v>
+        <v>871.5536556749014</v>
       </c>
       <c r="D23" t="n">
-        <v>1142.151122714225</v>
+        <v>871.5536556749014</v>
       </c>
       <c r="E23" t="n">
-        <v>1142.151122714225</v>
+        <v>871.5536556749014</v>
       </c>
       <c r="F23" t="n">
-        <v>723.9062092819131</v>
+        <v>453.308742242589</v>
       </c>
       <c r="G23" t="n">
-        <v>328.4375435892906</v>
+        <v>57.84007654996657</v>
       </c>
       <c r="H23" t="n">
-        <v>57.84007654996658</v>
+        <v>57.84007654996657</v>
       </c>
       <c r="I23" t="n">
-        <v>98.87304513672331</v>
+        <v>98.87304513672328</v>
       </c>
       <c r="J23" t="n">
-        <v>627.108041744827</v>
+        <v>502.2748056452057</v>
       </c>
       <c r="K23" t="n">
-        <v>839.9398265601208</v>
+        <v>715.1065904604995</v>
       </c>
       <c r="L23" t="n">
-        <v>1109.97301179919</v>
+        <v>985.1397756995684</v>
       </c>
       <c r="M23" t="n">
-        <v>1415.583243786877</v>
+        <v>1290.750007687255</v>
       </c>
       <c r="N23" t="n">
-        <v>1726.888312695346</v>
+        <v>1602.055076595724</v>
       </c>
       <c r="O23" t="n">
-        <v>2018.677881740445</v>
+        <v>1893.844645640824</v>
       </c>
       <c r="P23" t="n">
-        <v>2262.107115490589</v>
+        <v>2137.273879390968</v>
       </c>
       <c r="Q23" t="n">
-        <v>2651.861273841163</v>
+        <v>2804.099932118914</v>
       </c>
       <c r="R23" t="n">
         <v>2892.003827498329</v>
       </c>
       <c r="S23" t="n">
-        <v>2839.888638789338</v>
+        <v>2892.003827498329</v>
       </c>
       <c r="T23" t="n">
-        <v>2634.558500519039</v>
+        <v>2686.67368922803</v>
       </c>
       <c r="U23" t="n">
-        <v>2383.24214976091</v>
+        <v>2435.357338469901</v>
       </c>
       <c r="V23" t="n">
-        <v>2032.632003265447</v>
+        <v>2084.747191974438</v>
       </c>
       <c r="W23" t="n">
-        <v>1643.119921944081</v>
+        <v>1695.235110653072</v>
       </c>
       <c r="X23" t="n">
-        <v>1238.279191490116</v>
+        <v>1290.394380199107</v>
       </c>
       <c r="Y23" t="n">
-        <v>1142.151122714225</v>
+        <v>891.9363785322843</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>613.6092051851901</v>
+        <v>613.60920518519</v>
       </c>
       <c r="C24" t="n">
-        <v>496.1033017026949</v>
+        <v>496.1033017026948</v>
       </c>
       <c r="D24" t="n">
         <v>392.2633432179799</v>
@@ -6056,40 +6056,40 @@
         <v>287.5614094909171</v>
       </c>
       <c r="F24" t="n">
-        <v>193.9155791738213</v>
+        <v>193.9155791738212</v>
       </c>
       <c r="G24" t="n">
         <v>100.9271549742816</v>
       </c>
       <c r="H24" t="n">
-        <v>57.84007654996658</v>
+        <v>57.84007654996657</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2365232520808</v>
+        <v>77.77921740766892</v>
       </c>
       <c r="J24" t="n">
-        <v>179.480529280896</v>
+        <v>432.5538062394031</v>
       </c>
       <c r="K24" t="n">
-        <v>325.9121571238616</v>
+        <v>578.9854340823688</v>
       </c>
       <c r="L24" t="n">
-        <v>530.3349644817065</v>
+        <v>783.4082414402137</v>
       </c>
       <c r="M24" t="n">
-        <v>772.0322297453922</v>
+        <v>1025.105506703899</v>
       </c>
       <c r="N24" t="n">
-        <v>1170.08568390036</v>
+        <v>1275.541184185265</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.574685495074</v>
+        <v>1501.03018577998</v>
       </c>
       <c r="P24" t="n">
-        <v>1573.407865471839</v>
+        <v>1678.863365756745</v>
       </c>
       <c r="Q24" t="n">
-        <v>1684.172767381654</v>
+        <v>1789.62826766656</v>
       </c>
       <c r="R24" t="n">
         <v>1831.020793612384</v>
@@ -6110,10 +6110,10 @@
         <v>1045.706449485298</v>
       </c>
       <c r="X24" t="n">
-        <v>882.2291032519605</v>
+        <v>882.2291032519604</v>
       </c>
       <c r="Y24" t="n">
-        <v>742.5362146052529</v>
+        <v>742.5362146052528</v>
       </c>
     </row>
     <row r="25">
@@ -6126,43 +6126,43 @@
         <v>1057.172733622262</v>
       </c>
       <c r="C25" t="n">
-        <v>892.0794388794656</v>
+        <v>892.0794388794653</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6419343845237</v>
+        <v>735.6419343845234</v>
       </c>
       <c r="E25" t="n">
-        <v>576.3129969156646</v>
+        <v>576.3129969156644</v>
       </c>
       <c r="F25" t="n">
-        <v>411.3304910685124</v>
+        <v>411.3304910685123</v>
       </c>
       <c r="G25" t="n">
         <v>252.8459413671539</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8698711658439</v>
+        <v>123.8698711658438</v>
       </c>
       <c r="I25" t="n">
-        <v>57.84007654996658</v>
+        <v>57.84007654996657</v>
       </c>
       <c r="J25" t="n">
-        <v>99.29890627538832</v>
+        <v>177.2206229236092</v>
       </c>
       <c r="K25" t="n">
-        <v>427.5295045174108</v>
+        <v>505.4512211656316</v>
       </c>
       <c r="L25" t="n">
-        <v>912.3636469017982</v>
+        <v>990.2853635500192</v>
       </c>
       <c r="M25" t="n">
-        <v>1304.623521421618</v>
+        <v>1518.690624709232</v>
       </c>
       <c r="N25" t="n">
-        <v>1816.07172628123</v>
+        <v>2030.138829568845</v>
       </c>
       <c r="O25" t="n">
-        <v>2295.23054337403</v>
+        <v>2509.297646661645</v>
       </c>
       <c r="P25" t="n">
         <v>2691.702734370219</v>
@@ -6174,7 +6174,7 @@
         <v>2892.003827498329</v>
       </c>
       <c r="S25" t="n">
-        <v>2744.313245370986</v>
+        <v>2744.313245370985</v>
       </c>
       <c r="T25" t="n">
         <v>2511.669359286785</v>
@@ -6192,7 +6192,7 @@
         <v>1459.922933888011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1240.459433956041</v>
+        <v>1240.45943395604</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2441.205510218289</v>
+        <v>1465.551353006298</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.304780231589</v>
+        <v>1038.650623019598</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.012159416589</v>
+        <v>1038.650623019598</v>
       </c>
       <c r="E26" t="n">
-        <v>1165.035219564447</v>
+        <v>612.673683167456</v>
       </c>
       <c r="F26" t="n">
-        <v>739.911037753847</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="G26" t="n">
         <v>337.5631036829372</v>
@@ -6229,49 +6229,49 @@
         <v>629.3543334601862</v>
       </c>
       <c r="K26" t="n">
-        <v>842.1861182754801</v>
+        <v>1319.270083591193</v>
       </c>
       <c r="L26" t="n">
-        <v>1112.219303514549</v>
+        <v>1589.303268830262</v>
       </c>
       <c r="M26" t="n">
-        <v>1417.829535502236</v>
+        <v>1894.913500817949</v>
       </c>
       <c r="N26" t="n">
-        <v>1729.134604410705</v>
+        <v>2206.218569726418</v>
       </c>
       <c r="O26" t="n">
-        <v>2020.924173455805</v>
+        <v>2498.008138771517</v>
       </c>
       <c r="P26" t="n">
-        <v>2264.353407205948</v>
+        <v>2741.437372521661</v>
       </c>
       <c r="Q26" t="n">
-        <v>2764.175859609121</v>
+        <v>2916.414517886872</v>
       </c>
       <c r="R26" t="n">
         <v>3004.318413266286</v>
       </c>
       <c r="S26" t="n">
-        <v>3004.318413266286</v>
+        <v>2945.323956179008</v>
       </c>
       <c r="T26" t="n">
-        <v>3004.318413266286</v>
+        <v>2945.323956179008</v>
       </c>
       <c r="U26" t="n">
-        <v>3004.318413266286</v>
+        <v>2687.128337042591</v>
       </c>
       <c r="V26" t="n">
-        <v>3004.318413266286</v>
+        <v>2687.128337042591</v>
       </c>
       <c r="W26" t="n">
-        <v>3004.318413266286</v>
+        <v>2290.736987342938</v>
       </c>
       <c r="X26" t="n">
-        <v>3004.318413266286</v>
+        <v>2290.736987342938</v>
       </c>
       <c r="Y26" t="n">
-        <v>2598.981143221177</v>
+        <v>1885.399717297828</v>
       </c>
     </row>
     <row r="27">
@@ -6366,16 +6366,16 @@
         <v>935.601340864549</v>
       </c>
       <c r="D28" t="n">
-        <v>772.2845679913198</v>
+        <v>772.2845679913199</v>
       </c>
       <c r="E28" t="n">
-        <v>606.0763621441733</v>
+        <v>606.0763621441735</v>
       </c>
       <c r="F28" t="n">
-        <v>434.2145879187337</v>
+        <v>434.2145879187339</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8507698390879</v>
+        <v>268.850769839088</v>
       </c>
       <c r="H28" t="n">
         <v>132.9954312594904</v>
@@ -6393,16 +6393,16 @@
         <v>992.5316552653783</v>
       </c>
       <c r="M28" t="n">
-        <v>1520.936916424592</v>
+        <v>1416.938107189575</v>
       </c>
       <c r="N28" t="n">
-        <v>2032.385121284204</v>
+        <v>1928.386312049187</v>
       </c>
       <c r="O28" t="n">
-        <v>2511.543938377004</v>
+        <v>2407.545129141987</v>
       </c>
       <c r="P28" t="n">
-        <v>2908.016129373194</v>
+        <v>2804.017320138177</v>
       </c>
       <c r="Q28" t="n">
         <v>3004.318413266286</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1261.47031181699</v>
+        <v>484.1325326517089</v>
       </c>
       <c r="C29" t="n">
-        <v>834.5695818302897</v>
+        <v>483.3789890803255</v>
       </c>
       <c r="D29" t="n">
-        <v>834.5695818302897</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="E29" t="n">
-        <v>834.5695818302897</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="F29" t="n">
-        <v>409.4454000196899</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="G29" t="n">
-        <v>337.5631036829371</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="H29" t="n">
-        <v>60.08636826532572</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="I29" t="n">
-        <v>101.1193368520824</v>
+        <v>101.1193368520825</v>
       </c>
       <c r="J29" t="n">
-        <v>237.6251147525601</v>
+        <v>629.3543334601862</v>
       </c>
       <c r="K29" t="n">
-        <v>450.4568995678538</v>
+        <v>842.1861182754801</v>
       </c>
       <c r="L29" t="n">
-        <v>720.4900848069228</v>
+        <v>1112.219303514549</v>
       </c>
       <c r="M29" t="n">
-        <v>1026.10031679461</v>
+        <v>1417.829535502236</v>
       </c>
       <c r="N29" t="n">
-        <v>1602.20067321036</v>
+        <v>1729.134604410705</v>
       </c>
       <c r="O29" t="n">
-        <v>2345.769480493766</v>
+        <v>2020.924173455805</v>
       </c>
       <c r="P29" t="n">
-        <v>2589.19871424391</v>
+        <v>2264.353407205948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2764.17585960912</v>
+        <v>2764.175859609121</v>
       </c>
       <c r="R29" t="n">
         <v>3004.318413266286</v>
       </c>
       <c r="S29" t="n">
-        <v>2945.323956179007</v>
+        <v>2945.323956179008</v>
       </c>
       <c r="T29" t="n">
-        <v>2733.114549530421</v>
+        <v>2733.114549530422</v>
       </c>
       <c r="U29" t="n">
         <v>2474.918930394005</v>
       </c>
       <c r="V29" t="n">
-        <v>2474.918930394005</v>
+        <v>2117.429515520254</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.527580694352</v>
+        <v>1721.038165820601</v>
       </c>
       <c r="X29" t="n">
-        <v>1666.807581862099</v>
+        <v>1309.318166988349</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.47031181699</v>
+        <v>903.9808969432389</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>103.1734466896407</v>
       </c>
       <c r="H30" t="n">
-        <v>60.08636826532572</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="I30" t="n">
-        <v>103.4828149674399</v>
+        <v>80.02550912302809</v>
       </c>
       <c r="J30" t="n">
-        <v>181.7268209962551</v>
+        <v>158.2695151518433</v>
       </c>
       <c r="K30" t="n">
-        <v>328.1584488392207</v>
+        <v>304.7011429948089</v>
       </c>
       <c r="L30" t="n">
-        <v>785.6545331555731</v>
+        <v>509.1239503526539</v>
       </c>
       <c r="M30" t="n">
-        <v>1027.351798419259</v>
+        <v>750.8212156163397</v>
       </c>
       <c r="N30" t="n">
-        <v>1277.787475900624</v>
+        <v>1001.256893097705</v>
       </c>
       <c r="O30" t="n">
-        <v>1503.276477495339</v>
+        <v>1226.74589469242</v>
       </c>
       <c r="P30" t="n">
-        <v>1681.109657472104</v>
+        <v>1404.579074669185</v>
       </c>
       <c r="Q30" t="n">
         <v>1791.874559381919</v>
@@ -6600,16 +6600,16 @@
         <v>1107.573903985633</v>
       </c>
       <c r="C31" t="n">
-        <v>935.6013408645493</v>
+        <v>935.601340864549</v>
       </c>
       <c r="D31" t="n">
-        <v>772.28456799132</v>
+        <v>772.2845679913198</v>
       </c>
       <c r="E31" t="n">
-        <v>606.0763621441736</v>
+        <v>606.0763621441733</v>
       </c>
       <c r="F31" t="n">
-        <v>434.2145879187339</v>
+        <v>434.2145879187337</v>
       </c>
       <c r="G31" t="n">
         <v>268.8507698390878</v>
@@ -6618,28 +6618,28 @@
         <v>132.9954312594904</v>
       </c>
       <c r="I31" t="n">
-        <v>60.08636826532572</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="J31" t="n">
-        <v>101.5451979907475</v>
+        <v>179.4669146389683</v>
       </c>
       <c r="K31" t="n">
-        <v>429.7757962327699</v>
+        <v>507.6975128809908</v>
       </c>
       <c r="L31" t="n">
-        <v>914.6099386171574</v>
+        <v>992.5316552653783</v>
       </c>
       <c r="M31" t="n">
-        <v>1443.015199776371</v>
+        <v>1520.936916424592</v>
       </c>
       <c r="N31" t="n">
-        <v>1954.463404635983</v>
+        <v>2032.385121284204</v>
       </c>
       <c r="O31" t="n">
-        <v>2433.622221728783</v>
+        <v>2511.543938377004</v>
       </c>
       <c r="P31" t="n">
-        <v>2830.094412724972</v>
+        <v>2804.017320138177</v>
       </c>
       <c r="Q31" t="n">
         <v>3004.318413266286</v>
@@ -6660,7 +6660,7 @@
         <v>2041.498941389639</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.646537562152</v>
+        <v>1766.646537562151</v>
       </c>
       <c r="X31" t="n">
         <v>1524.082641007957</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1190.440773521779</v>
+        <v>2120.138321842368</v>
       </c>
       <c r="C32" t="n">
-        <v>763.5400435350796</v>
+        <v>1693.237591855668</v>
       </c>
       <c r="D32" t="n">
-        <v>763.5400435350796</v>
+        <v>1269.944971040668</v>
       </c>
       <c r="E32" t="n">
-        <v>337.5631036829371</v>
+        <v>843.968031188526</v>
       </c>
       <c r="F32" t="n">
-        <v>337.5631036829371</v>
+        <v>418.8438493779262</v>
       </c>
       <c r="G32" t="n">
-        <v>337.5631036829371</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="H32" t="n">
         <v>60.08636826532572</v>
@@ -6700,25 +6700,25 @@
         <v>101.1193368520824</v>
       </c>
       <c r="J32" t="n">
-        <v>237.6251147525601</v>
+        <v>629.3543334601861</v>
       </c>
       <c r="K32" t="n">
-        <v>693.4958032691047</v>
+        <v>842.1861182754799</v>
       </c>
       <c r="L32" t="n">
-        <v>1437.06461055251</v>
+        <v>1112.219303514549</v>
       </c>
       <c r="M32" t="n">
-        <v>1742.674842540197</v>
+        <v>1417.829535502236</v>
       </c>
       <c r="N32" t="n">
-        <v>2053.979911448666</v>
+        <v>1729.134604410705</v>
       </c>
       <c r="O32" t="n">
-        <v>2345.769480493766</v>
+        <v>2020.924173455804</v>
       </c>
       <c r="P32" t="n">
-        <v>2589.19871424391</v>
+        <v>2264.353407205948</v>
       </c>
       <c r="Q32" t="n">
         <v>2764.17585960912</v>
@@ -6727,25 +6727,25 @@
         <v>3004.318413266286</v>
       </c>
       <c r="S32" t="n">
-        <v>3004.318413266286</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="T32" t="n">
-        <v>3004.318413266286</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="U32" t="n">
-        <v>2746.122794129869</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="V32" t="n">
-        <v>2746.122794129869</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="W32" t="n">
-        <v>2427.346406690672</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="X32" t="n">
-        <v>2015.626407858419</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="Y32" t="n">
-        <v>1610.289137813309</v>
+        <v>2539.986686133898</v>
       </c>
     </row>
     <row r="33">
@@ -6837,19 +6837,19 @@
         <v>1107.573903985633</v>
       </c>
       <c r="C34" t="n">
-        <v>935.601340864549</v>
+        <v>935.6013408645488</v>
       </c>
       <c r="D34" t="n">
-        <v>772.2845679913197</v>
+        <v>772.2845679913196</v>
       </c>
       <c r="E34" t="n">
-        <v>606.0763621441732</v>
+        <v>606.0763621441731</v>
       </c>
       <c r="F34" t="n">
-        <v>434.2145879187336</v>
+        <v>434.2145879187335</v>
       </c>
       <c r="G34" t="n">
-        <v>268.8507698390878</v>
+        <v>268.8507698390877</v>
       </c>
       <c r="H34" t="n">
         <v>132.9954312594904</v>
@@ -6858,31 +6858,31 @@
         <v>60.08636826532572</v>
       </c>
       <c r="J34" t="n">
-        <v>101.5451979907475</v>
+        <v>179.4669146389683</v>
       </c>
       <c r="K34" t="n">
-        <v>429.7757962327699</v>
+        <v>403.6987036459737</v>
       </c>
       <c r="L34" t="n">
-        <v>914.6099386171574</v>
+        <v>888.5328460303612</v>
       </c>
       <c r="M34" t="n">
-        <v>1443.015199776371</v>
+        <v>1416.938107189575</v>
       </c>
       <c r="N34" t="n">
-        <v>1954.463404635983</v>
+        <v>1928.386312049187</v>
       </c>
       <c r="O34" t="n">
-        <v>2433.622221728783</v>
+        <v>2407.545129141987</v>
       </c>
       <c r="P34" t="n">
-        <v>2830.094412724972</v>
+        <v>2804.017320138176</v>
       </c>
       <c r="Q34" t="n">
         <v>3004.318413266286</v>
       </c>
       <c r="R34" t="n">
-        <v>2997.439144887999</v>
+        <v>2997.439144887998</v>
       </c>
       <c r="S34" t="n">
         <v>2842.869294382368</v>
@@ -6891,16 +6891,16 @@
         <v>2603.34613991988</v>
       </c>
       <c r="U34" t="n">
-        <v>2323.21040878161</v>
+        <v>2323.210408781609</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.498941389639</v>
+        <v>2041.498941389638</v>
       </c>
       <c r="W34" t="n">
         <v>1766.646537562151</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.082641007957</v>
+        <v>1524.082641007956</v>
       </c>
       <c r="Y34" t="n">
         <v>1297.739872697699</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1316.045728191586</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="C35" t="n">
-        <v>889.1449982048862</v>
+        <v>1690.873617949649</v>
       </c>
       <c r="D35" t="n">
-        <v>889.1449982048862</v>
+        <v>1267.580997134649</v>
       </c>
       <c r="E35" t="n">
-        <v>889.1449982048862</v>
+        <v>841.6040572825069</v>
       </c>
       <c r="F35" t="n">
-        <v>464.0208163942864</v>
+        <v>416.4798754719071</v>
       </c>
       <c r="G35" t="n">
-        <v>61.67288232337654</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H35" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="I35" t="n">
-        <v>83.38845554548334</v>
+        <v>83.38845554548357</v>
       </c>
       <c r="J35" t="n">
         <v>219.8942334459609</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7260182612549</v>
+        <v>432.7260182612548</v>
       </c>
       <c r="L35" t="n">
         <v>702.7592035003238</v>
@@ -6952,10 +6952,10 @@
         <v>1319.67450439648</v>
       </c>
       <c r="O35" t="n">
-        <v>1611.464073441579</v>
+        <v>1611.46407344158</v>
       </c>
       <c r="P35" t="n">
-        <v>1854.893307191723</v>
+        <v>1854.893307191724</v>
       </c>
       <c r="Q35" t="n">
         <v>2029.870452556934</v>
@@ -6976,13 +6976,13 @@
         <v>2117.774347936349</v>
       </c>
       <c r="W35" t="n">
-        <v>1721.382998236696</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="X35" t="n">
-        <v>1721.382998236696</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="Y35" t="n">
-        <v>1316.045728191586</v>
+        <v>2117.774347936349</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I36" t="n">
-        <v>85.75193366084119</v>
+        <v>62.29462781642934</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9959396896564</v>
+        <v>140.5386338452445</v>
       </c>
       <c r="K36" t="n">
-        <v>310.427567532622</v>
+        <v>286.9702616882101</v>
       </c>
       <c r="L36" t="n">
-        <v>662.4681515640682</v>
+        <v>491.3930690460551</v>
       </c>
       <c r="M36" t="n">
-        <v>904.1654168277539</v>
+        <v>733.0903343097409</v>
       </c>
       <c r="N36" t="n">
-        <v>1154.60109430912</v>
+        <v>983.5260117911066</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.090095903834</v>
+        <v>1209.015013385821</v>
       </c>
       <c r="P36" t="n">
-        <v>1557.923275880599</v>
+        <v>1386.848193362586</v>
       </c>
       <c r="Q36" t="n">
-        <v>1668.688177790415</v>
+        <v>1774.143678075321</v>
       </c>
       <c r="R36" t="n">
         <v>1815.536204021144</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>761.1624317261591</v>
+        <v>375.5996891613262</v>
       </c>
       <c r="C37" t="n">
-        <v>589.189868605075</v>
+        <v>203.6271260402422</v>
       </c>
       <c r="D37" t="n">
-        <v>589.189868605075</v>
+        <v>203.6271260402422</v>
       </c>
       <c r="E37" t="n">
-        <v>422.9816627579286</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="F37" t="n">
-        <v>251.1198885324891</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="G37" t="n">
-        <v>251.1198885324891</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2645499528917</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="I37" t="n">
         <v>42.35548695872698</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7360333323696</v>
+        <v>83.81431668414871</v>
       </c>
       <c r="K37" t="n">
-        <v>489.966631574392</v>
+        <v>164.7623058121491</v>
       </c>
       <c r="L37" t="n">
-        <v>974.8007739587795</v>
+        <v>649.5964481965366</v>
       </c>
       <c r="M37" t="n">
-        <v>1498.949925073026</v>
+        <v>1173.745599310783</v>
       </c>
       <c r="N37" t="n">
-        <v>1732.300775595761</v>
+        <v>1287.160881328515</v>
       </c>
       <c r="O37" t="n">
-        <v>1833.757268385357</v>
+        <v>1766.319698421315</v>
       </c>
       <c r="P37" t="n">
-        <v>1917.473254808239</v>
+        <v>2068.846752186138</v>
       </c>
       <c r="Q37" t="n">
         <v>2117.774347936349</v>
@@ -7122,25 +7122,25 @@
         <v>2110.895079558062</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.325229052431</v>
+        <v>2110.895079558062</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.325229052431</v>
+        <v>1871.371925095574</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.189497914161</v>
+        <v>1591.236193957303</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.235065302677</v>
+        <v>1309.524726565332</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.235065302677</v>
+        <v>1034.672322737845</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.671168748483</v>
+        <v>792.1084261836498</v>
       </c>
       <c r="Y37" t="n">
-        <v>951.3284004382247</v>
+        <v>565.7656578733919</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1289.570477143067</v>
+        <v>867.9960418446366</v>
       </c>
       <c r="C38" t="n">
-        <v>862.6697471563673</v>
+        <v>867.9960418446366</v>
       </c>
       <c r="D38" t="n">
-        <v>468.3324268108694</v>
+        <v>444.7034210296368</v>
       </c>
       <c r="E38" t="n">
-        <v>42.35548695872698</v>
+        <v>444.7034210296368</v>
       </c>
       <c r="F38" t="n">
-        <v>42.35548695872698</v>
+        <v>444.7034210296368</v>
       </c>
       <c r="G38" t="n">
         <v>42.35548695872698</v>
@@ -7171,16 +7171,16 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I38" t="n">
-        <v>83.38845554548334</v>
+        <v>83.38845554548369</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8942334459609</v>
+        <v>219.8942334459613</v>
       </c>
       <c r="K38" t="n">
         <v>432.7260182612551</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7592035003242</v>
+        <v>702.759203500324</v>
       </c>
       <c r="M38" t="n">
         <v>1008.369435488011</v>
@@ -7201,25 +7201,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S38" t="n">
-        <v>2058.77989084907</v>
+        <v>2104.901675013529</v>
       </c>
       <c r="T38" t="n">
-        <v>2058.77989084907</v>
+        <v>2104.901675013529</v>
       </c>
       <c r="U38" t="n">
-        <v>2058.77989084907</v>
+        <v>2104.901675013529</v>
       </c>
       <c r="V38" t="n">
-        <v>1701.29047597532</v>
+        <v>2104.901675013529</v>
       </c>
       <c r="W38" t="n">
-        <v>1701.29047597532</v>
+        <v>2104.901675013529</v>
       </c>
       <c r="X38" t="n">
-        <v>1289.570477143067</v>
+        <v>1693.181676181276</v>
       </c>
       <c r="Y38" t="n">
-        <v>1289.570477143067</v>
+        <v>1287.844406136167</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I39" t="n">
-        <v>85.75193366084119</v>
+        <v>62.29462781642934</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9959396896564</v>
+        <v>140.5386338452445</v>
       </c>
       <c r="K39" t="n">
-        <v>310.427567532622</v>
+        <v>286.9702616882101</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8503748904669</v>
+        <v>491.3930690460551</v>
       </c>
       <c r="M39" t="n">
-        <v>756.5476401541528</v>
+        <v>733.0903343097409</v>
       </c>
       <c r="N39" t="n">
-        <v>1006.983317635518</v>
+        <v>983.5260117911066</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.090095903834</v>
+        <v>1209.015013385821</v>
       </c>
       <c r="P39" t="n">
-        <v>1557.923275880599</v>
+        <v>1386.848193362586</v>
       </c>
       <c r="Q39" t="n">
-        <v>1668.688177790415</v>
+        <v>1774.143678075321</v>
       </c>
       <c r="R39" t="n">
         <v>1815.536204021144</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.7656578733919</v>
+        <v>551.5536423848964</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7656578733919</v>
+        <v>379.5810792638124</v>
       </c>
       <c r="D40" t="n">
-        <v>402.4488850001626</v>
+        <v>379.5810792638124</v>
       </c>
       <c r="E40" t="n">
-        <v>350.0725997637639</v>
+        <v>379.5810792638124</v>
       </c>
       <c r="F40" t="n">
-        <v>178.2108255383244</v>
+        <v>207.7193050383729</v>
       </c>
       <c r="G40" t="n">
-        <v>178.2108255383244</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="H40" t="n">
         <v>42.35548695872698</v>
@@ -7332,25 +7332,25 @@
         <v>42.35548695872698</v>
       </c>
       <c r="J40" t="n">
-        <v>161.7360333323696</v>
+        <v>83.81431668414871</v>
       </c>
       <c r="K40" t="n">
-        <v>489.966631574392</v>
+        <v>164.7623058121491</v>
       </c>
       <c r="L40" t="n">
-        <v>598.4118803676145</v>
+        <v>470.3745926965979</v>
       </c>
       <c r="M40" t="n">
-        <v>1122.561031481861</v>
+        <v>994.5237438108443</v>
       </c>
       <c r="N40" t="n">
-        <v>1634.009236341473</v>
+        <v>1505.971948670457</v>
       </c>
       <c r="O40" t="n">
-        <v>1735.46572913107</v>
+        <v>1985.130765763256</v>
       </c>
       <c r="P40" t="n">
-        <v>1917.473254808239</v>
+        <v>2068.846752186138</v>
       </c>
       <c r="Q40" t="n">
         <v>2117.774347936349</v>
@@ -7377,7 +7377,7 @@
         <v>792.1084261836498</v>
       </c>
       <c r="Y40" t="n">
-        <v>565.7656578733919</v>
+        <v>741.7196110969621</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>746.7329523630383</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="C41" t="n">
-        <v>319.8322223763384</v>
+        <v>1419.669754213784</v>
       </c>
       <c r="D41" t="n">
-        <v>319.8322223763384</v>
+        <v>996.3771333987847</v>
       </c>
       <c r="E41" t="n">
-        <v>319.8322223763384</v>
+        <v>570.4001935466423</v>
       </c>
       <c r="F41" t="n">
-        <v>319.8322223763384</v>
+        <v>145.2760117360425</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8322223763384</v>
+        <v>145.2760117360425</v>
       </c>
       <c r="H41" t="n">
         <v>42.35548695872698</v>
@@ -7438,25 +7438,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S41" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.77989084907</v>
       </c>
       <c r="T41" t="n">
-        <v>2117.774347936349</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="U41" t="n">
-        <v>1912.333715768695</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="V41" t="n">
-        <v>1554.844300894944</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="W41" t="n">
-        <v>1158.452951195291</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="X41" t="n">
-        <v>746.7329523630383</v>
+        <v>1846.570484200484</v>
       </c>
       <c r="Y41" t="n">
-        <v>746.7329523630383</v>
+        <v>1846.570484200484</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.29462781642934</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5386338452445</v>
+        <v>417.0692166481637</v>
       </c>
       <c r="K42" t="n">
-        <v>286.9702616882101</v>
+        <v>563.5008444911293</v>
       </c>
       <c r="L42" t="n">
-        <v>491.3930690460551</v>
+        <v>767.9236518489743</v>
       </c>
       <c r="M42" t="n">
-        <v>733.0903343097409</v>
+        <v>1009.62091711266</v>
       </c>
       <c r="N42" t="n">
-        <v>983.5260117911066</v>
+        <v>1260.056594594026</v>
       </c>
       <c r="O42" t="n">
-        <v>1209.015013385821</v>
+        <v>1485.54559618874</v>
       </c>
       <c r="P42" t="n">
-        <v>1386.848193362586</v>
+        <v>1663.378776165505</v>
       </c>
       <c r="Q42" t="n">
         <v>1774.143678075321</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644.4178440563068</v>
+        <v>1089.843022679034</v>
       </c>
       <c r="C43" t="n">
-        <v>644.4178440563068</v>
+        <v>917.8704595579503</v>
       </c>
       <c r="D43" t="n">
-        <v>481.1010711830775</v>
+        <v>754.553686684721</v>
       </c>
       <c r="E43" t="n">
-        <v>481.1010711830775</v>
+        <v>588.3454808375745</v>
       </c>
       <c r="F43" t="n">
-        <v>309.2392969576379</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="G43" t="n">
-        <v>143.875478877992</v>
+        <v>251.1198885324891</v>
       </c>
       <c r="H43" t="n">
         <v>115.2645499528917</v>
@@ -7575,16 +7575,16 @@
         <v>489.966631574392</v>
       </c>
       <c r="L43" t="n">
-        <v>974.8007739587795</v>
+        <v>696.7034196219021</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.670554655171</v>
+        <v>1220.852570736148</v>
       </c>
       <c r="N43" t="n">
-        <v>1203.085836672903</v>
+        <v>1732.300775595761</v>
       </c>
       <c r="O43" t="n">
-        <v>1682.244653765703</v>
+        <v>1833.757268385357</v>
       </c>
       <c r="P43" t="n">
         <v>1917.473254808239</v>
@@ -7593,28 +7593,28 @@
         <v>2117.774347936349</v>
       </c>
       <c r="R43" t="n">
-        <v>2117.774347936349</v>
+        <v>2110.895079558062</v>
       </c>
       <c r="S43" t="n">
-        <v>1963.204497430719</v>
+        <v>1956.325229052431</v>
       </c>
       <c r="T43" t="n">
-        <v>1723.681342968231</v>
+        <v>1956.325229052431</v>
       </c>
       <c r="U43" t="n">
-        <v>1443.54561182996</v>
+        <v>1676.189497914161</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.834144437989</v>
+        <v>1394.47803052219</v>
       </c>
       <c r="W43" t="n">
-        <v>886.9817406105017</v>
+        <v>1394.47803052219</v>
       </c>
       <c r="X43" t="n">
-        <v>644.4178440563068</v>
+        <v>1151.914133967995</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.4178440563068</v>
+        <v>1151.914133967995</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>869.8276028402366</v>
+        <v>1317.673019571026</v>
       </c>
       <c r="C44" t="n">
-        <v>869.8276028402366</v>
+        <v>890.7722895843265</v>
       </c>
       <c r="D44" t="n">
-        <v>869.8276028402366</v>
+        <v>467.4796687693268</v>
       </c>
       <c r="E44" t="n">
-        <v>869.8276028402366</v>
+        <v>467.4796687693268</v>
       </c>
       <c r="F44" t="n">
-        <v>444.7034210296368</v>
+        <v>42.35548695872698</v>
       </c>
       <c r="G44" t="n">
         <v>42.35548695872698</v>
@@ -7645,16 +7645,16 @@
         <v>42.35548695872698</v>
       </c>
       <c r="I44" t="n">
-        <v>83.38845554548357</v>
+        <v>83.38845554548369</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8942334459609</v>
+        <v>219.8942334459613</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7260182612548</v>
+        <v>432.7260182612551</v>
       </c>
       <c r="L44" t="n">
-        <v>702.7592035003238</v>
+        <v>702.759203500324</v>
       </c>
       <c r="M44" t="n">
         <v>1008.369435488011</v>
@@ -7684,16 +7684,16 @@
         <v>2058.77989084907</v>
       </c>
       <c r="V44" t="n">
-        <v>2058.77989084907</v>
+        <v>1701.29047597532</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.388541149417</v>
+        <v>1701.29047597532</v>
       </c>
       <c r="X44" t="n">
-        <v>1275.164872885346</v>
+        <v>1701.29047597532</v>
       </c>
       <c r="Y44" t="n">
-        <v>869.8276028402366</v>
+        <v>1317.673019571026</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.029838655696</v>
+        <v>746.0086853325107</v>
       </c>
       <c r="C46" t="n">
-        <v>49.05727553461199</v>
+        <v>746.0086853325107</v>
       </c>
       <c r="D46" t="n">
-        <v>49.05727553461199</v>
+        <v>582.6919124592814</v>
       </c>
       <c r="E46" t="n">
-        <v>42.35548695872698</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="F46" t="n">
-        <v>42.35548695872698</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="G46" t="n">
-        <v>42.35548695872698</v>
+        <v>251.1198885324891</v>
       </c>
       <c r="H46" t="n">
-        <v>42.35548695872698</v>
+        <v>115.2645499528917</v>
       </c>
       <c r="I46" t="n">
         <v>42.35548695872698</v>
@@ -7812,16 +7812,16 @@
         <v>489.966631574392</v>
       </c>
       <c r="L46" t="n">
-        <v>813.5571840051261</v>
+        <v>728.2804657365534</v>
       </c>
       <c r="M46" t="n">
-        <v>928.4269647015178</v>
+        <v>843.1502464329451</v>
       </c>
       <c r="N46" t="n">
-        <v>1041.84224671925</v>
+        <v>1354.598451292557</v>
       </c>
       <c r="O46" t="n">
-        <v>1521.00106381205</v>
+        <v>1833.757268385357</v>
       </c>
       <c r="P46" t="n">
         <v>1917.473254808239</v>
@@ -7833,25 +7833,25 @@
         <v>2110.895079558062</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.325229052431</v>
+        <v>2064.795338706923</v>
       </c>
       <c r="T46" t="n">
-        <v>1716.802074589944</v>
+        <v>1825.272184244435</v>
       </c>
       <c r="U46" t="n">
-        <v>1436.666343451673</v>
+        <v>1545.136453106164</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.954876059702</v>
+        <v>1263.424985714193</v>
       </c>
       <c r="W46" t="n">
-        <v>880.1024722322145</v>
+        <v>988.5725818867056</v>
       </c>
       <c r="X46" t="n">
-        <v>637.5385756780196</v>
+        <v>746.0086853325107</v>
       </c>
       <c r="Y46" t="n">
-        <v>411.1958073677616</v>
+        <v>746.0086853325107</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1088653268699</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>172.8031136545585</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>297.3539909068392</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>218.6451862116667</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1088653268699</v>
       </c>
       <c r="K15" t="n">
-        <v>149.1088653268703</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>296.6567716522967</v>
+        <v>413.4135054725805</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>99.28438308513888</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>217.318488522739</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>413.4135054725805</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>352.7583661930532</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>279.3238210130496</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>199.1586243345721</v>
       </c>
       <c r="M22" t="n">
-        <v>153.0430450703577</v>
+        <v>413.4135054725805</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>269.5919016242473</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.9464777629937</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>279.3238210130495</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>149.1088653268703</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,7 +9804,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>280.1920139630582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>99.68596089463863</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>481.9029952683967</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.1265727656179</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>312.6633042705101</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.85322034634578</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>267.4699873810926</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>456.3426648871779</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>328.1265727656179</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>255.629572685361</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>279.3238210130494</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>210.8660558972634</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.5620250415183</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>245.4938421224756</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>478.3188101457947</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>328.1265727656175</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>144.7311109888939</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.5620250415183</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>149.1088653268699</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>279.3238210130494</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,16 +10755,16 @@
         <v>413.4135054725805</v>
       </c>
       <c r="N37" t="n">
-        <v>121.1470388939421</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>221.0212801433755</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>149.1088653268699</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>279.3238210130494</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>199.1586243345721</v>
       </c>
       <c r="M40" t="n">
         <v>413.4135054725805</v>
@@ -10995,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>99.28438308513888</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>279.3238210130496</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>279.3238210130494</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>99.28438308513896</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>413.4135054725805</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>153.0430450703578</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11460,19 +11460,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>217.318488522739</v>
+        <v>131.1803892615545</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,22 +23260,22 @@
         <v>408.8394049541102</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.964526815274</v>
       </c>
       <c r="D11" t="n">
-        <v>412.2492189123452</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>414.9066947591165</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>172.4597024620568</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>391.5139790356962</v>
       </c>
       <c r="H11" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.2768368875957</v>
       </c>
       <c r="U11" t="n">
         <v>248.8031872505477</v>
@@ -23323,10 +23323,10 @@
         <v>385.616960508152</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>400.7923231494257</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>394.473421650154</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.7470461884683</v>
+        <v>181.4538333304405</v>
       </c>
       <c r="C13" t="n">
-        <v>163.4423617953686</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.8731294499925</v>
       </c>
       <c r="E13" t="n">
-        <v>157.7356480941705</v>
+        <v>123.8114880026224</v>
       </c>
       <c r="F13" t="n">
         <v>163.3326807886806</v>
       </c>
       <c r="G13" t="n">
-        <v>156.8997042043449</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C14" t="n">
-        <v>205.7495585958213</v>
+        <v>415.8212469923283</v>
       </c>
       <c r="D14" t="n">
-        <v>412.2492189123452</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>414.9066947591165</v>
       </c>
       <c r="F14" t="n">
-        <v>414.0624642979892</v>
+        <v>395.6377320078176</v>
       </c>
       <c r="G14" t="n">
-        <v>391.5139790356962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.8914923689308</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.2768368875957</v>
       </c>
       <c r="U14" t="n">
         <v>248.8031872505477</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.4423617953686</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.8731294499925</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>163.3326807886806</v>
+        <v>100.1151249416105</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.8997042043449</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>65.3694966697185</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T16" t="n">
-        <v>230.3174472233585</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.19182181363237</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>414.0624642979892</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>362.8259370309833</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>203.2768368875957</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8031872505477</v>
+        <v>98.33439233676313</v>
       </c>
       <c r="V17" t="n">
         <v>347.1040450305085</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>385.616960508152</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>400.7923231494257</v>
       </c>
       <c r="Y17" t="n">
         <v>394.473421650154</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.36233731946653</v>
       </c>
       <c r="C19" t="n">
         <v>163.4423617953686</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>157.7356480941705</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20924465865</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62.80839436994484</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H20" t="n">
-        <v>261.7804239985605</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>51.59403682190111</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.2768368875957</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>163.4423617953686</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.8731294499925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>157.7356480941705</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>82.16017656917393</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>65.3694966697185</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>233.3277818941484</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.5141679315234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.8394049541102</v>
+        <v>388.6605093253012</v>
       </c>
       <c r="C23" t="n">
         <v>415.8212469923283</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>299.3066335620223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>259.4520039757558</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>148.5134663028201</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.40451251640562</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.0873125821002</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6136629450522</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>421.8857145511633</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>327.1609813568155</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3244547302007</v>
+        <v>43.15454842872634</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.40451251640562</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.0873125821002</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>76.83881263785094</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.94131010215244</v>
       </c>
       <c r="H35" t="n">
-        <v>255.5777466524323</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.887201097974867</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.7101798988494</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.17997236422302</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0241520005739</v>
       </c>
       <c r="T37" t="n">
-        <v>237.127922917863</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>25.49946443268294</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>28.66574746480683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.7019680634353</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>45.66056632281369</v>
       </c>
       <c r="T38" t="n">
         <v>210.0873125821002</v>
@@ -25450,7 +25450,7 @@
         <v>255.6136629450522</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>112.6936014046403</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7101798988494</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I40" t="n">
         <v>72.17997236422302</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>174.1944136913345</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3244547302007</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>172.810648533893</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.40451251640562</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0873125821002</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>52.22743709907454</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>126.8139088488741</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.1719655579521</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.810475694504518</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.127922917863</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H44" t="n">
         <v>274.7019680634353</v>
@@ -25924,16 +25924,16 @@
         <v>255.6136629450522</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>24.25136726249997</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>21.50261550440797</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>157.9113530985488</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7101798988494</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4967851938014</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.17997236422302</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>107.3854085579464</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>294526.9977535432</v>
+        <v>294526.9977535431</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294526.9977535431</v>
+        <v>294526.9977535432</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>294526.9977535432</v>
+        <v>294526.9977535431</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>396522.4131067412</v>
+        <v>396522.413106741</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>286618.264748543</v>
+        <v>286618.2647485429</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>559413.2811273169</v>
       </c>
       <c r="C2" t="n">
-        <v>559413.2811273169</v>
+        <v>559413.281127317</v>
       </c>
       <c r="D2" t="n">
         <v>559413.2811273169</v>
       </c>
       <c r="E2" t="n">
-        <v>340580.5166999452</v>
+        <v>340580.5166999453</v>
       </c>
       <c r="F2" t="n">
         <v>340580.5166999453</v>
       </c>
       <c r="G2" t="n">
-        <v>340580.5166999453</v>
+        <v>340580.5166999452</v>
       </c>
       <c r="H2" t="n">
-        <v>340580.5166999453</v>
+        <v>340580.5166999451</v>
       </c>
       <c r="I2" t="n">
-        <v>416454.9298225301</v>
+        <v>416454.9298225302</v>
       </c>
       <c r="J2" t="n">
-        <v>417512.0518598314</v>
+        <v>417512.0518598313</v>
       </c>
       <c r="K2" t="n">
-        <v>417512.0518598309</v>
+        <v>417512.0518598313</v>
       </c>
       <c r="L2" t="n">
-        <v>417512.0518598314</v>
+        <v>417512.0518598313</v>
       </c>
       <c r="M2" t="n">
         <v>330630.8203388158</v>
       </c>
       <c r="N2" t="n">
-        <v>330630.8203388158</v>
+        <v>330630.8203388157</v>
       </c>
       <c r="O2" t="n">
-        <v>330630.8203388158</v>
+        <v>330630.8203388157</v>
       </c>
       <c r="P2" t="n">
-        <v>330630.8203388158</v>
+        <v>330630.8203388159</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557469.4099089622</v>
+        <v>557469.4099089621</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>51470.96935865032</v>
+        <v>51470.96935865029</v>
       </c>
       <c r="J3" t="n">
-        <v>7346.609369667862</v>
+        <v>7346.609369667891</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>30073.41587406943</v>
       </c>
       <c r="F4" t="n">
-        <v>30073.41587406944</v>
+        <v>30073.41587406943</v>
       </c>
       <c r="G4" t="n">
         <v>30073.41587406944</v>
@@ -26438,10 +26438,10 @@
         <v>30073.41587406943</v>
       </c>
       <c r="I4" t="n">
-        <v>71877.50023913008</v>
+        <v>71877.50023913005</v>
       </c>
       <c r="J4" t="n">
-        <v>72117.28956248805</v>
+        <v>72117.28956248803</v>
       </c>
       <c r="K4" t="n">
         <v>72117.28956248805</v>
@@ -26490,7 +26490,7 @@
         <v>43452.13726154695</v>
       </c>
       <c r="I5" t="n">
-        <v>55220.42535088905</v>
+        <v>55220.42535088904</v>
       </c>
       <c r="J5" t="n">
         <v>56355.0571734007</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200101.2756483498</v>
+        <v>200079.5620068534</v>
       </c>
       <c r="C6" t="n">
-        <v>200101.2756483498</v>
+        <v>200079.5620068535</v>
       </c>
       <c r="D6" t="n">
-        <v>200101.2756483498</v>
+        <v>200079.5620068534</v>
       </c>
       <c r="E6" t="n">
-        <v>-290414.4463446334</v>
+        <v>-290997.2696385075</v>
       </c>
       <c r="F6" t="n">
-        <v>267054.9635643288</v>
+        <v>266472.1402704547</v>
       </c>
       <c r="G6" t="n">
-        <v>267054.9635643288</v>
+        <v>266472.1402704546</v>
       </c>
       <c r="H6" t="n">
-        <v>267054.963564329</v>
+        <v>266472.1402704545</v>
       </c>
       <c r="I6" t="n">
-        <v>237886.0348738607</v>
+        <v>237497.7613572241</v>
       </c>
       <c r="J6" t="n">
-        <v>281693.0957542747</v>
+        <v>281307.5328069642</v>
       </c>
       <c r="K6" t="n">
-        <v>289039.7051239422</v>
+        <v>288654.1421766321</v>
       </c>
       <c r="L6" t="n">
-        <v>289039.7051239426</v>
+        <v>288654.1421766322</v>
       </c>
       <c r="M6" t="n">
-        <v>186795.5126782968</v>
+        <v>186187.177342471</v>
       </c>
       <c r="N6" t="n">
-        <v>263502.3905149589</v>
+        <v>262894.055179133</v>
       </c>
       <c r="O6" t="n">
-        <v>263502.3905149589</v>
+        <v>262894.055179133</v>
       </c>
       <c r="P6" t="n">
-        <v>263502.3905149589</v>
+        <v>262894.0551791331</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="F3" t="n">
-        <v>490.3402427409701</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="G3" t="n">
         <v>490.3402427409702</v>
@@ -26810,13 +26810,13 @@
         <v>529.4435869840872</v>
       </c>
       <c r="I4" t="n">
-        <v>723.0009568745822</v>
+        <v>723.0009568745821</v>
       </c>
       <c r="J4" t="n">
         <v>751.0796033165716</v>
       </c>
       <c r="K4" t="n">
-        <v>751.0796033165715</v>
+        <v>751.0796033165716</v>
       </c>
       <c r="L4" t="n">
         <v>751.0796033165715</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>193.557369890495</v>
+        <v>193.5573698904949</v>
       </c>
       <c r="J4" t="n">
-        <v>28.07864644198935</v>
+        <v>28.07864644198946</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H11" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I11" t="n">
-        <v>75.99534556088949</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J11" t="n">
         <v>167.3045836274831</v>
@@ -31770,16 +31770,16 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M11" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N11" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O11" t="n">
         <v>332.1278977854177</v>
       </c>
       <c r="P11" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q11" t="n">
         <v>212.8692658825887</v>
@@ -31788,10 +31788,10 @@
         <v>123.8244634093567</v>
       </c>
       <c r="S11" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T11" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U11" t="n">
         <v>0.1576973644996084</v>
@@ -31843,7 +31843,7 @@
         <v>99.64546385738907</v>
       </c>
       <c r="K12" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L12" t="n">
         <v>229.002770914073</v>
@@ -31852,10 +31852,10 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N12" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O12" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P12" t="n">
         <v>201.4003159288336</v>
@@ -31870,10 +31870,10 @@
         <v>19.59048045290573</v>
       </c>
       <c r="T12" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8842201098607659</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H13" t="n">
-        <v>7.861520613125725</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I13" t="n">
         <v>26.59091021290377</v>
@@ -31934,10 +31934,10 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O13" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P13" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q13" t="n">
         <v>74.0413766538865</v>
@@ -31946,10 +31946,10 @@
         <v>39.75775148519406</v>
       </c>
       <c r="S13" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T13" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U13" t="n">
         <v>0.04823018781058729</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.971217056245104</v>
+        <v>1.971217056245105</v>
       </c>
       <c r="H14" t="n">
         <v>20.18772667727018</v>
       </c>
       <c r="I14" t="n">
-        <v>75.99534556088946</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J14" t="n">
         <v>167.3045836274831</v>
       </c>
       <c r="K14" t="n">
-        <v>250.7462016183384</v>
+        <v>250.7462016183385</v>
       </c>
       <c r="L14" t="n">
-        <v>311.0728356033996</v>
+        <v>311.0728356033997</v>
       </c>
       <c r="M14" t="n">
-        <v>346.1284669273984</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N14" t="n">
         <v>351.7291873884549</v>
       </c>
       <c r="O14" t="n">
-        <v>332.1278977854176</v>
+        <v>332.1278977854177</v>
       </c>
       <c r="P14" t="n">
-        <v>283.4634767093665</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q14" t="n">
         <v>212.8692658825887</v>
@@ -32025,13 +32025,13 @@
         <v>123.8244634093567</v>
       </c>
       <c r="S14" t="n">
-        <v>44.91910866918536</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T14" t="n">
-        <v>8.629002663712949</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1576973644996083</v>
+        <v>0.1576973644996084</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,22 +32071,22 @@
         <v>1.054694107027747</v>
       </c>
       <c r="H15" t="n">
-        <v>10.18612466524166</v>
+        <v>10.18612466524167</v>
       </c>
       <c r="I15" t="n">
-        <v>36.31293307091147</v>
+        <v>36.31293307091148</v>
       </c>
       <c r="J15" t="n">
-        <v>99.64546385738905</v>
+        <v>99.64546385738907</v>
       </c>
       <c r="K15" t="n">
         <v>170.3099690282481</v>
       </c>
       <c r="L15" t="n">
-        <v>229.0027709140729</v>
+        <v>229.002770914073</v>
       </c>
       <c r="M15" t="n">
-        <v>267.2354322938287</v>
+        <v>267.2354322938288</v>
       </c>
       <c r="N15" t="n">
         <v>274.3083590027999</v>
@@ -32101,16 +32101,16 @@
         <v>134.6307775918226</v>
       </c>
       <c r="R15" t="n">
-        <v>65.4835516626526</v>
+        <v>65.48355166265262</v>
       </c>
       <c r="S15" t="n">
         <v>19.59048045290573</v>
       </c>
       <c r="T15" t="n">
-        <v>4.251157387537277</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06938777019919391</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8842201098607656</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H16" t="n">
-        <v>7.861520613125722</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I16" t="n">
-        <v>26.59091021290376</v>
+        <v>26.59091021290377</v>
       </c>
       <c r="J16" t="n">
-        <v>62.51436176715613</v>
+        <v>62.51436176715615</v>
       </c>
       <c r="K16" t="n">
-        <v>102.7303000365507</v>
+        <v>102.7303000365508</v>
       </c>
       <c r="L16" t="n">
         <v>131.4594152423906</v>
       </c>
       <c r="M16" t="n">
-        <v>138.6055214029925</v>
+        <v>138.6055214029926</v>
       </c>
       <c r="N16" t="n">
-        <v>135.3097919026025</v>
+        <v>135.3097919026026</v>
       </c>
       <c r="O16" t="n">
         <v>124.9804933465017</v>
@@ -32177,7 +32177,7 @@
         <v>106.942403105342</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.04137665388649</v>
+        <v>74.0413766538865</v>
       </c>
       <c r="R16" t="n">
         <v>39.75775148519406</v>
@@ -32189,7 +32189,7 @@
         <v>3.778031378495998</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04823018781058727</v>
+        <v>0.04823018781058729</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.44744301692599</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J11" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K11" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L11" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M11" t="n">
         <v>308.6972040279667</v>
       </c>
       <c r="N11" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O11" t="n">
         <v>294.7369384293936</v>
       </c>
       <c r="P11" t="n">
-        <v>245.8881148991354</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q11" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R11" t="n">
-        <v>88.79181351456023</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.14054632091148</v>
+        <v>43.83479464860021</v>
       </c>
       <c r="J12" t="n">
-        <v>79.03434952405574</v>
+        <v>228.1432148509257</v>
       </c>
       <c r="K12" t="n">
         <v>147.9107351949148</v>
@@ -35497,7 +35497,7 @@
         <v>206.4876841998434</v>
       </c>
       <c r="M12" t="n">
-        <v>416.9417654360593</v>
+        <v>244.1386517815008</v>
       </c>
       <c r="N12" t="n">
         <v>252.9653307892583</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K13" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L13" t="n">
-        <v>489.7314569539268</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M13" t="n">
         <v>116.0300815115068</v>
       </c>
       <c r="N13" t="n">
-        <v>411.9148818338414</v>
+        <v>114.5608909270022</v>
       </c>
       <c r="O13" t="n">
-        <v>102.4813058480773</v>
+        <v>321.126492059744</v>
       </c>
       <c r="P13" t="n">
         <v>400.4769606022118</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.44744301692596</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J14" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K14" t="n">
-        <v>214.981600823529</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L14" t="n">
         <v>272.7607931707767</v>
       </c>
       <c r="M14" t="n">
-        <v>308.6972040279666</v>
+        <v>308.6972040279667</v>
       </c>
       <c r="N14" t="n">
         <v>314.4495645540089</v>
       </c>
       <c r="O14" t="n">
-        <v>294.7369384293935</v>
+        <v>294.7369384293936</v>
       </c>
       <c r="P14" t="n">
-        <v>245.8881148991352</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q14" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.79181351456018</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.83479464860019</v>
+        <v>43.83479464860021</v>
       </c>
       <c r="J15" t="n">
-        <v>79.03434952405571</v>
+        <v>228.1432148509257</v>
       </c>
       <c r="K15" t="n">
-        <v>297.019600521785</v>
+        <v>147.9107351949148</v>
       </c>
       <c r="L15" t="n">
-        <v>206.4876841998433</v>
+        <v>206.4876841998434</v>
       </c>
       <c r="M15" t="n">
-        <v>244.1386517815007</v>
+        <v>244.1386517815008</v>
       </c>
       <c r="N15" t="n">
-        <v>252.9653307892582</v>
+        <v>252.9653307892583</v>
       </c>
       <c r="O15" t="n">
-        <v>227.7666682774891</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P15" t="n">
-        <v>179.6294747240049</v>
+        <v>179.629474724005</v>
       </c>
       <c r="Q15" t="n">
         <v>111.8837393028441</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.87760578325427</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K16" t="n">
-        <v>81.76564558383875</v>
+        <v>331.5460588303257</v>
       </c>
       <c r="L16" t="n">
         <v>109.5406553466894</v>
       </c>
       <c r="M16" t="n">
-        <v>412.6868531638034</v>
+        <v>529.4435869840872</v>
       </c>
       <c r="N16" t="n">
-        <v>516.6143483430427</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O16" t="n">
-        <v>483.9988051442422</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P16" t="n">
-        <v>400.4769606022117</v>
+        <v>183.8459855324944</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.42181388910154</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5864104784269</v>
+        <v>41.87760578325428</v>
       </c>
       <c r="K19" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L19" t="n">
-        <v>326.8591438694284</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M19" t="n">
-        <v>116.0300815115068</v>
+        <v>529.4435869840872</v>
       </c>
       <c r="N19" t="n">
-        <v>114.5608909270022</v>
+        <v>467.3192571200554</v>
       </c>
       <c r="O19" t="n">
-        <v>483.9988051442422</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P19" t="n">
-        <v>400.4769606022118</v>
+        <v>84.56160244735555</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910156</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>176.7445912779907</v>
       </c>
       <c r="R20" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351456035</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>20.14054632091148</v>
       </c>
       <c r="J21" t="n">
-        <v>358.3581705371054</v>
+        <v>79.03434952405574</v>
       </c>
       <c r="K21" t="n">
-        <v>147.9107351949148</v>
+        <v>427.2345562079644</v>
       </c>
       <c r="L21" t="n">
         <v>206.4876841998434</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5864104784269</v>
+        <v>41.87760578325428</v>
       </c>
       <c r="K22" t="n">
-        <v>331.5460588303257</v>
+        <v>81.76564558383878</v>
       </c>
       <c r="L22" t="n">
-        <v>489.7314569539267</v>
+        <v>308.6992796812615</v>
       </c>
       <c r="M22" t="n">
-        <v>269.0731265818645</v>
+        <v>529.4435869840872</v>
       </c>
       <c r="N22" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O22" t="n">
         <v>483.9988051442422</v>
@@ -36299,7 +36299,7 @@
         <v>84.56160244735555</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910156</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>41.44744301692597</v>
       </c>
       <c r="J23" t="n">
-        <v>533.5707036445492</v>
+        <v>407.4765257661439</v>
       </c>
       <c r="K23" t="n">
         <v>214.9816008235291</v>
@@ -36378,10 +36378,10 @@
         <v>245.8881148991353</v>
       </c>
       <c r="Q23" t="n">
-        <v>393.6910690409843</v>
+        <v>673.5616694221676</v>
       </c>
       <c r="R23" t="n">
-        <v>242.5682360173391</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J24" t="n">
-        <v>79.03434952405574</v>
+        <v>358.3581705371053</v>
       </c>
       <c r="K24" t="n">
         <v>147.9107351949148</v>
@@ -36448,7 +36448,7 @@
         <v>244.1386517815008</v>
       </c>
       <c r="N24" t="n">
-        <v>402.0741961161286</v>
+        <v>252.9653307892583</v>
       </c>
       <c r="O24" t="n">
         <v>227.7666682774892</v>
@@ -36460,7 +36460,7 @@
         <v>111.8837393028441</v>
       </c>
       <c r="R24" t="n">
-        <v>148.3313396269992</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K25" t="n">
         <v>331.5460588303257</v>
@@ -36524,7 +36524,7 @@
         <v>489.7314569539267</v>
       </c>
       <c r="M25" t="n">
-        <v>396.222095474565</v>
+        <v>533.7426880396096</v>
       </c>
       <c r="N25" t="n">
         <v>516.6143483430428</v>
@@ -36533,7 +36533,7 @@
         <v>483.9988051442422</v>
       </c>
       <c r="P25" t="n">
-        <v>400.4769606022118</v>
+        <v>184.2475633419942</v>
       </c>
       <c r="Q25" t="n">
         <v>202.32433649304</v>
@@ -36597,7 +36597,7 @@
         <v>533.5707036445492</v>
       </c>
       <c r="K26" t="n">
-        <v>214.9816008235291</v>
+        <v>696.8845960919258</v>
       </c>
       <c r="L26" t="n">
         <v>272.7607931707767</v>
@@ -36615,10 +36615,10 @@
         <v>245.8881148991353</v>
       </c>
       <c r="Q26" t="n">
-        <v>504.8711640436086</v>
+        <v>176.7445912779907</v>
       </c>
       <c r="R26" t="n">
-        <v>242.5682360173391</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>489.7314569539267</v>
       </c>
       <c r="M28" t="n">
-        <v>533.7426880396096</v>
+        <v>428.6933857820169</v>
       </c>
       <c r="N28" t="n">
         <v>516.6143483430428</v>
@@ -36773,7 +36773,7 @@
         <v>400.4769606022118</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27503423544734</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>41.44744301692597</v>
       </c>
       <c r="J29" t="n">
-        <v>137.8846241418966</v>
+        <v>533.5707036445492</v>
       </c>
       <c r="K29" t="n">
         <v>214.9816008235291</v>
@@ -36843,16 +36843,16 @@
         <v>308.6972040279667</v>
       </c>
       <c r="N29" t="n">
-        <v>581.9195519351015</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O29" t="n">
-        <v>751.0796033165715</v>
+        <v>294.7369384293936</v>
       </c>
       <c r="P29" t="n">
         <v>245.8881148991353</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.7445912779907</v>
+        <v>504.8711640436086</v>
       </c>
       <c r="R29" t="n">
         <v>242.5682360173391</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J30" t="n">
         <v>79.03434952405574</v>
@@ -36916,7 +36916,7 @@
         <v>147.9107351949148</v>
       </c>
       <c r="L30" t="n">
-        <v>462.1172568852044</v>
+        <v>206.4876841998434</v>
       </c>
       <c r="M30" t="n">
         <v>244.1386517815008</v>
@@ -36931,7 +36931,7 @@
         <v>179.629474724005</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8837393028441</v>
+        <v>391.2075603158935</v>
       </c>
       <c r="R30" t="n">
         <v>41.81063226850847</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K31" t="n">
         <v>331.5460588303257</v>
@@ -37007,10 +37007,10 @@
         <v>483.9988051442422</v>
       </c>
       <c r="P31" t="n">
-        <v>400.4769606022118</v>
+        <v>295.4276583446189</v>
       </c>
       <c r="Q31" t="n">
-        <v>175.9838389306199</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>41.44744301692597</v>
       </c>
       <c r="J32" t="n">
-        <v>137.8846241418966</v>
+        <v>533.5707036445492</v>
       </c>
       <c r="K32" t="n">
-        <v>460.4754429460047</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L32" t="n">
-        <v>751.0796033165715</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M32" t="n">
         <v>308.6972040279667</v>
@@ -37089,7 +37089,7 @@
         <v>245.8881148991353</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.7445912779907</v>
+        <v>504.8711640436081</v>
       </c>
       <c r="R32" t="n">
         <v>242.5682360173391</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K34" t="n">
-        <v>331.5460588303257</v>
+        <v>226.4967565727327</v>
       </c>
       <c r="L34" t="n">
         <v>489.7314569539267</v>
@@ -37247,7 +37247,7 @@
         <v>400.4769606022118</v>
       </c>
       <c r="Q34" t="n">
-        <v>175.9838389306199</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J36" t="n">
         <v>79.03434952405574</v>
@@ -37390,7 +37390,7 @@
         <v>147.9107351949148</v>
       </c>
       <c r="L36" t="n">
-        <v>355.5965495267133</v>
+        <v>206.4876841998434</v>
       </c>
       <c r="M36" t="n">
         <v>244.1386517815008</v>
@@ -37405,10 +37405,10 @@
         <v>179.629474724005</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.8837393028441</v>
+        <v>391.2075603158935</v>
       </c>
       <c r="R36" t="n">
-        <v>148.3313396269992</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5864104784269</v>
+        <v>41.87760578325428</v>
       </c>
       <c r="K37" t="n">
-        <v>331.5460588303257</v>
+        <v>81.76564558383878</v>
       </c>
       <c r="L37" t="n">
         <v>489.7314569539267</v>
@@ -37475,16 +37475,16 @@
         <v>529.4435869840872</v>
       </c>
       <c r="N37" t="n">
-        <v>235.7079298209443</v>
+        <v>114.5608909270022</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4813058480773</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P37" t="n">
-        <v>84.56160244735555</v>
+        <v>305.582882590731</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910156</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>176.7445912779907</v>
       </c>
       <c r="R38" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351456035</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J39" t="n">
         <v>79.03434952405574</v>
@@ -37636,16 +37636,16 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O39" t="n">
-        <v>376.8755336043591</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P39" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.8837393028441</v>
+        <v>391.2075603158935</v>
       </c>
       <c r="R39" t="n">
-        <v>148.3313396269992</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5864104784269</v>
+        <v>41.87760578325428</v>
       </c>
       <c r="K40" t="n">
-        <v>331.5460588303257</v>
+        <v>81.76564558383878</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5406553466894</v>
+        <v>308.6992796812615</v>
       </c>
       <c r="M40" t="n">
         <v>529.4435869840872</v>
@@ -37715,13 +37715,13 @@
         <v>516.6143483430428</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4813058480773</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P40" t="n">
-        <v>183.8459855324944</v>
+        <v>84.56160244735555</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910156</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>20.14054632091148</v>
       </c>
       <c r="J42" t="n">
-        <v>79.03434952405574</v>
+        <v>358.3581705371054</v>
       </c>
       <c r="K42" t="n">
         <v>147.9107351949148</v>
@@ -37879,7 +37879,7 @@
         <v>179.629474724005</v>
       </c>
       <c r="Q42" t="n">
-        <v>391.2075603158935</v>
+        <v>111.8837393028441</v>
       </c>
       <c r="R42" t="n">
         <v>41.81063226850847</v>
@@ -37943,19 +37943,19 @@
         <v>331.5460588303257</v>
       </c>
       <c r="L43" t="n">
-        <v>489.7314569539267</v>
+        <v>208.8250384318283</v>
       </c>
       <c r="M43" t="n">
-        <v>116.0300815115068</v>
+        <v>529.4435869840872</v>
       </c>
       <c r="N43" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O43" t="n">
-        <v>483.9988051442422</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6046475177133</v>
+        <v>84.56160244735555</v>
       </c>
       <c r="Q43" t="n">
         <v>202.32433649304</v>
@@ -38040,7 +38040,7 @@
         <v>176.7445912779907</v>
       </c>
       <c r="R44" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351456035</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>331.5460588303257</v>
       </c>
       <c r="L46" t="n">
-        <v>326.8591438694284</v>
+        <v>240.7210446082439</v>
       </c>
       <c r="M46" t="n">
         <v>116.0300815115068</v>
       </c>
       <c r="N46" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O46" t="n">
         <v>483.9988051442422</v>
       </c>
       <c r="P46" t="n">
-        <v>400.4769606022118</v>
+        <v>84.56160244735555</v>
       </c>
       <c r="Q46" t="n">
         <v>202.32433649304</v>
